--- a/data/pca/factorExposure/factorExposure_2018-04-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01167070839079</v>
+        <v>0.0166617283860672</v>
       </c>
       <c r="C2">
-        <v>-0.02567029275814635</v>
+        <v>-0.0181444855452207</v>
       </c>
       <c r="D2">
-        <v>0.03192746418323443</v>
+        <v>0.03064317301240186</v>
       </c>
       <c r="E2">
-        <v>-0.005467596745894919</v>
+        <v>0.01933215797362086</v>
       </c>
       <c r="F2">
-        <v>0.1044052073905018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.001104271676970874</v>
+      </c>
+      <c r="G2">
+        <v>-0.03641427360123551</v>
+      </c>
+      <c r="H2">
+        <v>-0.04764717526066489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09444391137388423</v>
+        <v>0.0691510694767898</v>
       </c>
       <c r="C3">
-        <v>-0.04067710778929306</v>
+        <v>0.01234512067514421</v>
       </c>
       <c r="D3">
-        <v>0.03238448975086992</v>
+        <v>0.08224756174471136</v>
       </c>
       <c r="E3">
-        <v>-0.03267594655194314</v>
+        <v>0.006266652067736881</v>
       </c>
       <c r="F3">
-        <v>0.3572069523221092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.02104003308388908</v>
+      </c>
+      <c r="G3">
+        <v>-0.1536883205428524</v>
+      </c>
+      <c r="H3">
+        <v>-0.1230955826756828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0439115956138036</v>
+        <v>0.03593436544094102</v>
       </c>
       <c r="C4">
-        <v>-0.01143725135199819</v>
+        <v>-0.005457934033328263</v>
       </c>
       <c r="D4">
-        <v>0.04289836388751842</v>
+        <v>0.0650542470793322</v>
       </c>
       <c r="E4">
-        <v>0.02605357676642948</v>
+        <v>-0.01638010903005853</v>
       </c>
       <c r="F4">
-        <v>0.05954756018834351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.03727648017406905</v>
+      </c>
+      <c r="G4">
+        <v>-0.04214031458444217</v>
+      </c>
+      <c r="H4">
+        <v>-0.05782746197821953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03211507815174664</v>
+        <v>0.02016347783066748</v>
       </c>
       <c r="C6">
-        <v>-0.009371630007420787</v>
+        <v>-0.001007868466771433</v>
       </c>
       <c r="D6">
-        <v>0.03777368556220849</v>
+        <v>0.06523298016138439</v>
       </c>
       <c r="E6">
-        <v>0.017235023344879</v>
+        <v>-0.005969555215094783</v>
       </c>
       <c r="F6">
-        <v>0.007632301772895566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03174081437720373</v>
+      </c>
+      <c r="G6">
+        <v>-0.01396554333196155</v>
+      </c>
+      <c r="H6">
+        <v>-0.05877240333792177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03490114169215878</v>
+        <v>0.008679795244653038</v>
       </c>
       <c r="C7">
-        <v>0.0300017158272395</v>
+        <v>-0.003945019745516483</v>
       </c>
       <c r="D7">
-        <v>0.03912720226559159</v>
+        <v>0.03696358592493501</v>
       </c>
       <c r="E7">
-        <v>0.01356778127316481</v>
+        <v>-0.04335309076913355</v>
       </c>
       <c r="F7">
-        <v>0.03739345669980725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.001641985183204166</v>
+      </c>
+      <c r="G7">
+        <v>-0.02198681792784166</v>
+      </c>
+      <c r="H7">
+        <v>-0.03543595447941996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01555071872076549</v>
+        <v>0.001838076642435153</v>
       </c>
       <c r="C8">
-        <v>-0.0009395003372504218</v>
+        <v>0.001401477257997339</v>
       </c>
       <c r="D8">
-        <v>0.04966028668850121</v>
+        <v>0.01432653187918376</v>
       </c>
       <c r="E8">
-        <v>0.01760837400576726</v>
+        <v>-0.009001207391154741</v>
       </c>
       <c r="F8">
-        <v>0.06316982021939276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01107137260746806</v>
+      </c>
+      <c r="G8">
+        <v>-0.03744214457126866</v>
+      </c>
+      <c r="H8">
+        <v>-0.03493994152149195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03228813538089703</v>
+        <v>0.02781630470924431</v>
       </c>
       <c r="C9">
-        <v>-0.008176046039204901</v>
+        <v>-0.001888499409308475</v>
       </c>
       <c r="D9">
-        <v>0.03440754273394648</v>
+        <v>0.04849807050642016</v>
       </c>
       <c r="E9">
-        <v>0.009480983444994802</v>
+        <v>-0.005754531949625978</v>
       </c>
       <c r="F9">
-        <v>0.07807185017922326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01323447697368916</v>
+      </c>
+      <c r="G9">
+        <v>-0.04373449304896591</v>
+      </c>
+      <c r="H9">
+        <v>-0.05573124586529003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04157092743750371</v>
+        <v>0.1313941686260697</v>
       </c>
       <c r="C10">
-        <v>0.0005469621177362122</v>
+        <v>0.001630298559058998</v>
       </c>
       <c r="D10">
-        <v>-0.1479156834556274</v>
+        <v>-0.1511557550400435</v>
       </c>
       <c r="E10">
-        <v>-0.0328997104583225</v>
+        <v>0.0006370691819846719</v>
       </c>
       <c r="F10">
-        <v>0.06858404035340492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04207049458892863</v>
+      </c>
+      <c r="G10">
+        <v>-0.03119325033848395</v>
+      </c>
+      <c r="H10">
+        <v>0.007861576122539272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03039605524774126</v>
+        <v>0.01698528779524743</v>
       </c>
       <c r="C11">
-        <v>-0.0195204171519421</v>
+        <v>0.01027642678149411</v>
       </c>
       <c r="D11">
-        <v>0.03965294611495905</v>
+        <v>0.0495685911830184</v>
       </c>
       <c r="E11">
-        <v>0.01241013920188986</v>
+        <v>0.001284263518772821</v>
       </c>
       <c r="F11">
-        <v>0.0252312463661594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01066437076264062</v>
+      </c>
+      <c r="G11">
+        <v>-0.01923376399352172</v>
+      </c>
+      <c r="H11">
+        <v>-0.05196861816840639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04146818563255551</v>
+        <v>0.02047583267689393</v>
       </c>
       <c r="C12">
-        <v>-0.01744281197442574</v>
+        <v>0.006480723166595069</v>
       </c>
       <c r="D12">
-        <v>0.03430536627519722</v>
+        <v>0.04907257191631616</v>
       </c>
       <c r="E12">
-        <v>0.02116509550600723</v>
+        <v>-0.0114348568569012</v>
       </c>
       <c r="F12">
-        <v>0.0008163593588751551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01373182676473854</v>
+      </c>
+      <c r="G12">
+        <v>-0.004560965103066987</v>
+      </c>
+      <c r="H12">
+        <v>-0.02109083662852133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01127297555823758</v>
+        <v>0.02086957270873965</v>
       </c>
       <c r="C13">
-        <v>-0.01973979777019785</v>
+        <v>-0.01420737329217718</v>
       </c>
       <c r="D13">
-        <v>0.01567311801512896</v>
+        <v>0.02803223899273405</v>
       </c>
       <c r="E13">
-        <v>0.009319211106804844</v>
+        <v>0.0124325953553081</v>
       </c>
       <c r="F13">
-        <v>0.07754053071545108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01638835059585937</v>
+      </c>
+      <c r="G13">
+        <v>-0.0566941165356309</v>
+      </c>
+      <c r="H13">
+        <v>-0.0739909178705935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02002754016669496</v>
+        <v>0.01028006921246288</v>
       </c>
       <c r="C14">
-        <v>0.003773860934239794</v>
+        <v>-0.001944935103217674</v>
       </c>
       <c r="D14">
-        <v>0.02522797181306842</v>
+        <v>0.01960860002938112</v>
       </c>
       <c r="E14">
-        <v>0.01744104888427363</v>
+        <v>-0.01367086906828001</v>
       </c>
       <c r="F14">
-        <v>0.05145102331950314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.006242947604544507</v>
+      </c>
+      <c r="G14">
+        <v>-0.04075782923434526</v>
+      </c>
+      <c r="H14">
+        <v>-0.01007495448480497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03146821291156762</v>
+        <v>0.01855431148430997</v>
       </c>
       <c r="C16">
-        <v>-0.01938116788130769</v>
+        <v>0.009599135846120372</v>
       </c>
       <c r="D16">
-        <v>0.04319468593498207</v>
+        <v>0.04196527591817754</v>
       </c>
       <c r="E16">
-        <v>0.01421208147749579</v>
+        <v>-0.00240173936493175</v>
       </c>
       <c r="F16">
-        <v>0.0263911146692789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01233677829638257</v>
+      </c>
+      <c r="G16">
+        <v>-0.01836798179412233</v>
+      </c>
+      <c r="H16">
+        <v>-0.03849505769437353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03464861429330937</v>
+        <v>0.01940822368244352</v>
       </c>
       <c r="C19">
-        <v>-0.01616155922704287</v>
+        <v>-0.001238724276418212</v>
       </c>
       <c r="D19">
-        <v>0.05708873763059209</v>
+        <v>0.04837458195873448</v>
       </c>
       <c r="E19">
-        <v>0.02959923731190072</v>
+        <v>-0.01031030919651168</v>
       </c>
       <c r="F19">
-        <v>0.07962129529690051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02076220587731346</v>
+      </c>
+      <c r="G19">
+        <v>-0.05618549416203612</v>
+      </c>
+      <c r="H19">
+        <v>-0.054114629962384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002052877285906076</v>
+        <v>0.005523287205709872</v>
       </c>
       <c r="C20">
-        <v>0.006841409650062865</v>
+        <v>-0.005818904921227901</v>
       </c>
       <c r="D20">
-        <v>0.01000876311851554</v>
+        <v>0.02326167310324982</v>
       </c>
       <c r="E20">
-        <v>0.0144127706219919</v>
+        <v>-0.003943498866112376</v>
       </c>
       <c r="F20">
-        <v>0.06265547354056565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.007571554926588614</v>
+      </c>
+      <c r="G20">
+        <v>-0.04988216543791681</v>
+      </c>
+      <c r="H20">
+        <v>-0.02912062017816704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01388900470274958</v>
+        <v>0.01235195141874861</v>
       </c>
       <c r="C21">
-        <v>0.0168854901395211</v>
+        <v>-0.00733454520822809</v>
       </c>
       <c r="D21">
-        <v>0.03966839647947563</v>
+        <v>0.02536593420819398</v>
       </c>
       <c r="E21">
-        <v>-0.001981092173418419</v>
+        <v>-0.01727329346600929</v>
       </c>
       <c r="F21">
-        <v>0.02682736483735349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.0003044779263821409</v>
+      </c>
+      <c r="G21">
+        <v>-0.04119130717224095</v>
+      </c>
+      <c r="H21">
+        <v>-0.04894012552700957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02888938186647381</v>
+        <v>0.01353893400039526</v>
       </c>
       <c r="C24">
-        <v>-0.01737089427471507</v>
+        <v>0.004260679390664911</v>
       </c>
       <c r="D24">
-        <v>0.02313301875295452</v>
+        <v>0.04367758422046318</v>
       </c>
       <c r="E24">
-        <v>0.01264594266829107</v>
+        <v>-0.000863993927568361</v>
       </c>
       <c r="F24">
-        <v>0.02967292555834862</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.00878969826353</v>
+      </c>
+      <c r="G24">
+        <v>-0.01340933242457708</v>
+      </c>
+      <c r="H24">
+        <v>-0.04644209729080485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03317198968634074</v>
+        <v>0.0275457036909267</v>
       </c>
       <c r="C25">
-        <v>-0.01577612338388776</v>
+        <v>0.002305257419800138</v>
       </c>
       <c r="D25">
-        <v>0.03600112680889735</v>
+        <v>0.04781210296677758</v>
       </c>
       <c r="E25">
-        <v>0.008617701293653713</v>
+        <v>-0.006898184381884164</v>
       </c>
       <c r="F25">
-        <v>0.03176073413432768</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0178217497909789</v>
+      </c>
+      <c r="G25">
+        <v>-0.01539750529103247</v>
+      </c>
+      <c r="H25">
+        <v>-0.04678742776442735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01809156779365841</v>
+        <v>0.0126699732247798</v>
       </c>
       <c r="C26">
-        <v>-0.01073852206250701</v>
+        <v>-0.01927673210033087</v>
       </c>
       <c r="D26">
-        <v>0.02142467639867972</v>
+        <v>0.01200689715410378</v>
       </c>
       <c r="E26">
-        <v>-0.006272062016316727</v>
+        <v>0.0001830551687056571</v>
       </c>
       <c r="F26">
-        <v>0.05055839177255688</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00174730792878945</v>
+      </c>
+      <c r="G26">
+        <v>-0.02465681667249683</v>
+      </c>
+      <c r="H26">
+        <v>-0.02065001559846845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.04163754022967004</v>
+        <v>0.01571259278203346</v>
       </c>
       <c r="C27">
-        <v>-0.01844306574332463</v>
+        <v>0.005819700730350709</v>
       </c>
       <c r="D27">
-        <v>0.01319882668156996</v>
+        <v>0.01566339811931498</v>
       </c>
       <c r="E27">
-        <v>0.03172476810779215</v>
+        <v>-0.004803917507073802</v>
       </c>
       <c r="F27">
-        <v>0.01916367799679281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.007520567139179414</v>
+      </c>
+      <c r="G27">
+        <v>-0.008706318829908322</v>
+      </c>
+      <c r="H27">
+        <v>0.0009533667854292688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07291180225141543</v>
+        <v>0.182620138965179</v>
       </c>
       <c r="C28">
-        <v>-0.0006662468205176141</v>
+        <v>-0.009388752189609249</v>
       </c>
       <c r="D28">
-        <v>-0.2175513840966635</v>
+        <v>-0.1944437579370443</v>
       </c>
       <c r="E28">
-        <v>-0.05648210723353471</v>
+        <v>-0.01016814826493264</v>
       </c>
       <c r="F28">
-        <v>0.06676349977114972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03918403697388114</v>
+      </c>
+      <c r="G28">
+        <v>-0.01907577865336178</v>
+      </c>
+      <c r="H28">
+        <v>0.008570166259169853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02230936553274182</v>
+        <v>0.01597761898847568</v>
       </c>
       <c r="C29">
-        <v>0.00214943893330523</v>
+        <v>-0.0005915219133072814</v>
       </c>
       <c r="D29">
-        <v>0.03046855279118124</v>
+        <v>0.0193720615686499</v>
       </c>
       <c r="E29">
-        <v>0.0186684225196699</v>
+        <v>-0.01244527697560846</v>
       </c>
       <c r="F29">
-        <v>0.0489839778318964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.006788189430302464</v>
+      </c>
+      <c r="G29">
+        <v>-0.04029409152954216</v>
+      </c>
+      <c r="H29">
+        <v>-0.006633603501883644</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05399288118296271</v>
+        <v>0.03667493954581028</v>
       </c>
       <c r="C30">
-        <v>-0.06729528410050896</v>
+        <v>-0.003494898061155329</v>
       </c>
       <c r="D30">
-        <v>0.06241875622070962</v>
+        <v>0.09534809837501848</v>
       </c>
       <c r="E30">
-        <v>0.03155329194250305</v>
+        <v>0.0304996177784404</v>
       </c>
       <c r="F30">
-        <v>0.07829656783461618</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.03873436166059731</v>
+      </c>
+      <c r="G30">
+        <v>-0.05600066205429512</v>
+      </c>
+      <c r="H30">
+        <v>-0.07232273893938496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0570983595249837</v>
+        <v>0.04502228543680663</v>
       </c>
       <c r="C31">
-        <v>-0.03353410962209115</v>
+        <v>0.00840829289694419</v>
       </c>
       <c r="D31">
-        <v>0.0266159247120571</v>
+        <v>0.03297273032895313</v>
       </c>
       <c r="E31">
-        <v>0.01625171116889686</v>
+        <v>0.002294923820857904</v>
       </c>
       <c r="F31">
-        <v>0.03169192958322247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001074683473484436</v>
+      </c>
+      <c r="G31">
+        <v>-0.01816758787540972</v>
+      </c>
+      <c r="H31">
+        <v>-0.003397932280776531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0222667336875327</v>
+        <v>0.008367898156926455</v>
       </c>
       <c r="C32">
-        <v>0.01550295468376578</v>
+        <v>0.01269207485119308</v>
       </c>
       <c r="D32">
-        <v>0.06471952318311153</v>
+        <v>0.01405337687413946</v>
       </c>
       <c r="E32">
-        <v>0.02872379791199276</v>
+        <v>-0.03034152182038327</v>
       </c>
       <c r="F32">
-        <v>0.04195456299885645</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03229106447753281</v>
+      </c>
+      <c r="G32">
+        <v>-0.04112077920252707</v>
+      </c>
+      <c r="H32">
+        <v>-0.04689244903051139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03417883656761852</v>
+        <v>0.02327958539136928</v>
       </c>
       <c r="C33">
-        <v>-0.04039263290874203</v>
+        <v>-0.0008433061148524539</v>
       </c>
       <c r="D33">
-        <v>0.05438560156734089</v>
+        <v>0.04923888544462085</v>
       </c>
       <c r="E33">
-        <v>-0.004100214476035717</v>
+        <v>0.01960193946784979</v>
       </c>
       <c r="F33">
-        <v>0.05930646803541456</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.004468476448199314</v>
+      </c>
+      <c r="G33">
+        <v>-0.03967333872203085</v>
+      </c>
+      <c r="H33">
+        <v>-0.05097335906663433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03514316026565736</v>
+        <v>0.02510225256833367</v>
       </c>
       <c r="C34">
-        <v>-0.01121520958641569</v>
+        <v>0.01854997715249208</v>
       </c>
       <c r="D34">
-        <v>0.04506703276744466</v>
+        <v>0.04730651485850505</v>
       </c>
       <c r="E34">
-        <v>0.0246854514981202</v>
+        <v>-0.01422111532582069</v>
       </c>
       <c r="F34">
-        <v>0.02889859619202559</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01870321324983482</v>
+      </c>
+      <c r="G34">
+        <v>-0.008495885491329274</v>
+      </c>
+      <c r="H34">
+        <v>-0.03770834049184205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01698532504610342</v>
+        <v>0.01559838362604528</v>
       </c>
       <c r="C36">
-        <v>0.001427804961990156</v>
+        <v>-0.006962755287835384</v>
       </c>
       <c r="D36">
-        <v>0.01689510862840064</v>
+        <v>0.007717366493250092</v>
       </c>
       <c r="E36">
-        <v>0.00716622925481915</v>
+        <v>-0.007986940119415481</v>
       </c>
       <c r="F36">
-        <v>0.02717040529017913</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0007445709391388052</v>
+      </c>
+      <c r="G36">
+        <v>-0.01748892143702626</v>
+      </c>
+      <c r="H36">
+        <v>-0.0162969744822257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009530558617017394</v>
+        <v>0.0258377837722039</v>
       </c>
       <c r="C38">
-        <v>-0.005566105550194544</v>
+        <v>0.01487781848498235</v>
       </c>
       <c r="D38">
-        <v>0.0003491745807178605</v>
+        <v>0.01550226605794972</v>
       </c>
       <c r="E38">
-        <v>-0.01925172508950132</v>
+        <v>-0.0001582190450655796</v>
       </c>
       <c r="F38">
-        <v>0.04135601694364682</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.006438766852271986</v>
+      </c>
+      <c r="G38">
+        <v>-0.02196210261825813</v>
+      </c>
+      <c r="H38">
+        <v>-0.03583176610079744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02879583664317185</v>
+        <v>0.00785959145589968</v>
       </c>
       <c r="C39">
-        <v>-0.01889393566587252</v>
+        <v>0.006757114378347113</v>
       </c>
       <c r="D39">
-        <v>0.06191259687161688</v>
+        <v>0.08900048437580414</v>
       </c>
       <c r="E39">
-        <v>0.0123528635299985</v>
+        <v>0.006121785935251932</v>
       </c>
       <c r="F39">
-        <v>0.04428460664986678</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01571937521233981</v>
+      </c>
+      <c r="G39">
+        <v>-0.02975339803258667</v>
+      </c>
+      <c r="H39">
+        <v>-0.08115091615768014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0212269768018956</v>
+        <v>0.02543923423937537</v>
       </c>
       <c r="C40">
-        <v>-0.04730769290141255</v>
+        <v>-7.017221261497136e-05</v>
       </c>
       <c r="D40">
-        <v>0.03099367702067301</v>
+        <v>0.03657737203085634</v>
       </c>
       <c r="E40">
-        <v>0.02928992851702544</v>
+        <v>0.02302671190916903</v>
       </c>
       <c r="F40">
-        <v>0.04843148653142795</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03466708181941536</v>
+      </c>
+      <c r="G40">
+        <v>-0.01651904200739579</v>
+      </c>
+      <c r="H40">
+        <v>-0.06288470843262986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.005021489962978373</v>
+        <v>0.01282233335834623</v>
       </c>
       <c r="C41">
-        <v>0.001133531720721514</v>
+        <v>-0.00311785992905993</v>
       </c>
       <c r="D41">
-        <v>0.006948084876799304</v>
+        <v>-0.01061510527609902</v>
       </c>
       <c r="E41">
-        <v>-0.01249891335262563</v>
+        <v>-0.003568388334256308</v>
       </c>
       <c r="F41">
-        <v>0.005448444156578031</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006967932569068266</v>
+      </c>
+      <c r="G41">
+        <v>0.000758714218070414</v>
+      </c>
+      <c r="H41">
+        <v>0.003605254041537195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2509788747583286</v>
+        <v>0.1216251085401498</v>
       </c>
       <c r="C42">
-        <v>-0.19154324107151</v>
+        <v>-0.07793270571797103</v>
       </c>
       <c r="D42">
-        <v>0.1251957682565497</v>
+        <v>0.2450018899349952</v>
       </c>
       <c r="E42">
-        <v>-0.8781319051897867</v>
+        <v>0.2243419182317437</v>
       </c>
       <c r="F42">
-        <v>-0.2509272752147051</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8500074811994</v>
+      </c>
+      <c r="G42">
+        <v>0.3522203882921696</v>
+      </c>
+      <c r="H42">
+        <v>-0.03794194593921498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003446643703496888</v>
+        <v>0.01318569402899975</v>
       </c>
       <c r="C43">
-        <v>-0.001908435937192793</v>
+        <v>-0.003452122524829296</v>
       </c>
       <c r="D43">
-        <v>0.01056543729108016</v>
+        <v>-0.007360984932472143</v>
       </c>
       <c r="E43">
-        <v>-0.006782767797655923</v>
+        <v>-0.0002057617524653373</v>
       </c>
       <c r="F43">
-        <v>0.0232911244751564</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.005285217633042504</v>
+      </c>
+      <c r="G43">
+        <v>-0.00125427837593524</v>
+      </c>
+      <c r="H43">
+        <v>-0.004271102090033213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02259109867769195</v>
+        <v>0.01351958542449781</v>
       </c>
       <c r="C44">
-        <v>0.00565601068421202</v>
+        <v>0.004945529093524795</v>
       </c>
       <c r="D44">
-        <v>0.04011404509303655</v>
+        <v>0.04239376571005688</v>
       </c>
       <c r="E44">
-        <v>-0.004540341474740948</v>
+        <v>-0.01360224990876628</v>
       </c>
       <c r="F44">
-        <v>0.09404533954125603</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.006324384067179037</v>
+      </c>
+      <c r="G44">
+        <v>-0.03885830265714927</v>
+      </c>
+      <c r="H44">
+        <v>-0.06192889765336346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02018366711361891</v>
+        <v>0.008044910030455663</v>
       </c>
       <c r="C46">
-        <v>-0.008427644790946298</v>
+        <v>-0.006487915596540662</v>
       </c>
       <c r="D46">
-        <v>0.0641164887097229</v>
+        <v>0.01717256161276043</v>
       </c>
       <c r="E46">
-        <v>0.01806744181827459</v>
+        <v>-0.001490968730682348</v>
       </c>
       <c r="F46">
-        <v>0.0610462779984662</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.001107768955395108</v>
+      </c>
+      <c r="G46">
+        <v>-0.04188793845144449</v>
+      </c>
+      <c r="H46">
+        <v>-0.008956506872058788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08585648482861476</v>
+        <v>0.06098793843629621</v>
       </c>
       <c r="C47">
-        <v>-0.042852397686586</v>
+        <v>0.023147084439734</v>
       </c>
       <c r="D47">
-        <v>0.01821751612036546</v>
+        <v>0.06104237196774456</v>
       </c>
       <c r="E47">
-        <v>0.0253309644832473</v>
+        <v>-0.006056413081491332</v>
       </c>
       <c r="F47">
-        <v>0.007549606195713039</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.008623044864159298</v>
+      </c>
+      <c r="G47">
+        <v>0.003034834966334647</v>
+      </c>
+      <c r="H47">
+        <v>0.02946228163102155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01834614641211955</v>
+        <v>0.01775415750138883</v>
       </c>
       <c r="C48">
-        <v>-0.009601922650871821</v>
+        <v>0.004302229597146221</v>
       </c>
       <c r="D48">
-        <v>0.02379770412509664</v>
+        <v>0.015812305140326</v>
       </c>
       <c r="E48">
-        <v>0.006337039891156623</v>
+        <v>-0.001090845295234763</v>
       </c>
       <c r="F48">
-        <v>0.03296779883750454</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.004285256940273272</v>
+      </c>
+      <c r="G48">
+        <v>-0.01767667652307338</v>
+      </c>
+      <c r="H48">
+        <v>-0.01989497114774881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.085274449087368</v>
+        <v>0.0640618153185267</v>
       </c>
       <c r="C50">
-        <v>-0.02514039969619684</v>
+        <v>0.02094505166792662</v>
       </c>
       <c r="D50">
-        <v>0.03895161317112431</v>
+        <v>0.05735974692686228</v>
       </c>
       <c r="E50">
-        <v>0.01583484993196845</v>
+        <v>-0.01757075773102058</v>
       </c>
       <c r="F50">
-        <v>0.01873449815514916</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.002982711023347334</v>
+      </c>
+      <c r="G50">
+        <v>-0.007317229513039918</v>
+      </c>
+      <c r="H50">
+        <v>0.01628736440299766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01926091045426167</v>
+        <v>0.01596948235744279</v>
       </c>
       <c r="C51">
-        <v>-0.002918187930943989</v>
+        <v>-0.002044169342256246</v>
       </c>
       <c r="D51">
-        <v>0.003520518866192343</v>
+        <v>0.0115030031037944</v>
       </c>
       <c r="E51">
-        <v>0.002841404033841941</v>
+        <v>-0.008323646428526748</v>
       </c>
       <c r="F51">
-        <v>0.08502211084064801</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0006470383791420088</v>
+      </c>
+      <c r="G51">
+        <v>-0.03312691965559048</v>
+      </c>
+      <c r="H51">
+        <v>-0.04367679447821952</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09395454956027703</v>
+        <v>0.07915668890024993</v>
       </c>
       <c r="C53">
-        <v>-0.0465345298075018</v>
+        <v>0.0312511635569707</v>
       </c>
       <c r="D53">
-        <v>0.03864305333682105</v>
+        <v>0.0976435078300799</v>
       </c>
       <c r="E53">
-        <v>0.03608443529987718</v>
+        <v>-0.01078084841772264</v>
       </c>
       <c r="F53">
-        <v>-0.03930935512198463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.03081311069357071</v>
+      </c>
+      <c r="G53">
+        <v>0.02874604848545739</v>
+      </c>
+      <c r="H53">
+        <v>0.03099966178162311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02251657274215013</v>
+        <v>0.02436868887104348</v>
       </c>
       <c r="C54">
-        <v>0.0002604807407791687</v>
+        <v>0.006250672987141047</v>
       </c>
       <c r="D54">
-        <v>0.007680964994739312</v>
+        <v>-0.006489161965594153</v>
       </c>
       <c r="E54">
-        <v>0.0097039597265928</v>
+        <v>-0.006309370747180382</v>
       </c>
       <c r="F54">
-        <v>0.03125717284143787</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.005269554568174376</v>
+      </c>
+      <c r="G54">
+        <v>-0.03908549182125103</v>
+      </c>
+      <c r="H54">
+        <v>-0.0005073259108998637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08919388619579904</v>
+        <v>0.06106454178440695</v>
       </c>
       <c r="C55">
-        <v>-0.04152690010598717</v>
+        <v>0.02721709281372505</v>
       </c>
       <c r="D55">
-        <v>0.04941185908311634</v>
+        <v>0.08978785680690975</v>
       </c>
       <c r="E55">
-        <v>0.02645141458384149</v>
+        <v>-0.009453156462890648</v>
       </c>
       <c r="F55">
-        <v>-0.03870100222580731</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0182394931227106</v>
+      </c>
+      <c r="G55">
+        <v>0.01054735210278164</v>
+      </c>
+      <c r="H55">
+        <v>0.04043175740813203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1334884656138481</v>
+        <v>0.105550663869647</v>
       </c>
       <c r="C56">
-        <v>-0.07150749193580216</v>
+        <v>0.04599326664886531</v>
       </c>
       <c r="D56">
-        <v>0.03106957718756584</v>
+        <v>0.1213770084261234</v>
       </c>
       <c r="E56">
-        <v>0.07705973310594499</v>
+        <v>-0.009982063765398197</v>
       </c>
       <c r="F56">
-        <v>-0.0726367240445806</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05475116073224172</v>
+      </c>
+      <c r="G56">
+        <v>0.05385591680537703</v>
+      </c>
+      <c r="H56">
+        <v>0.06881247950574862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04019309812924992</v>
+        <v>0.02827669434804974</v>
       </c>
       <c r="C57">
-        <v>-0.02907021389115144</v>
+        <v>-0.01397550016695014</v>
       </c>
       <c r="D57">
-        <v>0.01829687886357329</v>
+        <v>0.03833213978995378</v>
       </c>
       <c r="E57">
-        <v>-0.0120006570455407</v>
+        <v>0.009336892650200544</v>
       </c>
       <c r="F57">
-        <v>0.0492909105078402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.003627980994054272</v>
+      </c>
+      <c r="G57">
+        <v>-0.06484438893593039</v>
+      </c>
+      <c r="H57">
+        <v>-0.05313621565103809</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1565323433497385</v>
+        <v>0.1039531312981745</v>
       </c>
       <c r="C58">
-        <v>-0.1890679599844864</v>
+        <v>0.03594522767160589</v>
       </c>
       <c r="D58">
-        <v>0.2196327844740623</v>
+        <v>0.1842360506305611</v>
       </c>
       <c r="E58">
-        <v>-0.005380602301048634</v>
+        <v>0.2785377239052423</v>
       </c>
       <c r="F58">
-        <v>0.5238913003725617</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2152041599612793</v>
+      </c>
+      <c r="G58">
+        <v>-0.8030336855558651</v>
+      </c>
+      <c r="H58">
+        <v>0.3187793557297425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05653049238118455</v>
+        <v>0.195240750318767</v>
       </c>
       <c r="C59">
-        <v>-0.02383059693747525</v>
+        <v>-0.0002211891068889923</v>
       </c>
       <c r="D59">
-        <v>-0.1833070286888892</v>
+        <v>-0.1884827423321475</v>
       </c>
       <c r="E59">
-        <v>-0.01656627639398482</v>
+        <v>0.0081671435069275</v>
       </c>
       <c r="F59">
-        <v>0.09101140335466576</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.005558273796243595</v>
+      </c>
+      <c r="G59">
+        <v>-0.0211967690918639</v>
+      </c>
+      <c r="H59">
+        <v>-0.01824176028900992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1407725095733198</v>
+        <v>0.2094703288557092</v>
       </c>
       <c r="C60">
-        <v>-0.1032402135524387</v>
+        <v>0.02233643251918279</v>
       </c>
       <c r="D60">
-        <v>-0.003930219997770974</v>
+        <v>0.04202727851653029</v>
       </c>
       <c r="E60">
-        <v>-0.0200666112704708</v>
+        <v>0.0513368248035391</v>
       </c>
       <c r="F60">
-        <v>0.1608181573182992</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.07479001872588199</v>
+      </c>
+      <c r="G60">
+        <v>-0.01989168503441874</v>
+      </c>
+      <c r="H60">
+        <v>-0.3738263421920225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02131533313007245</v>
+        <v>0.01544691830135362</v>
       </c>
       <c r="C61">
-        <v>-0.01002434741541959</v>
+        <v>0.009473804287840443</v>
       </c>
       <c r="D61">
-        <v>0.04454074273547856</v>
+        <v>0.05970787090869676</v>
       </c>
       <c r="E61">
-        <v>0.004723670498749973</v>
+        <v>-0.002980158533599457</v>
       </c>
       <c r="F61">
-        <v>0.01519410538295381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0193009397056161</v>
+      </c>
+      <c r="G61">
+        <v>-0.02142310589734832</v>
+      </c>
+      <c r="H61">
+        <v>-0.05907165254088315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01189081054616264</v>
+        <v>0.006861053753137342</v>
       </c>
       <c r="C63">
-        <v>-0.00464814303057217</v>
+        <v>-0.002588547986549479</v>
       </c>
       <c r="D63">
-        <v>0.03305791743765893</v>
+        <v>0.02489049593186991</v>
       </c>
       <c r="E63">
-        <v>0.003158211141174673</v>
+        <v>-0.006497380872100204</v>
       </c>
       <c r="F63">
-        <v>0.00883978998101311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.006295501363120633</v>
+      </c>
+      <c r="G63">
+        <v>-0.01605821997463374</v>
+      </c>
+      <c r="H63">
+        <v>-0.01225649246300777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03468502521832885</v>
+        <v>0.03706694049254134</v>
       </c>
       <c r="C64">
-        <v>-0.0002819437082162368</v>
+        <v>0.007591065137595074</v>
       </c>
       <c r="D64">
-        <v>0.035996612850531</v>
+        <v>0.04058575112622737</v>
       </c>
       <c r="E64">
-        <v>0.01473051533324977</v>
+        <v>-0.01555385772196748</v>
       </c>
       <c r="F64">
-        <v>0.02328810710181681</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.005422034227442481</v>
+      </c>
+      <c r="G64">
+        <v>0.009623271243463485</v>
+      </c>
+      <c r="H64">
+        <v>-0.04990296453882866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0358990882903616</v>
+        <v>0.03812854548680249</v>
       </c>
       <c r="C65">
-        <v>-0.01048746289285539</v>
+        <v>0.00193768700576369</v>
       </c>
       <c r="D65">
-        <v>0.03853510089696831</v>
+        <v>0.07489253219616673</v>
       </c>
       <c r="E65">
-        <v>0.01925510374302148</v>
+        <v>-0.008204328166007942</v>
       </c>
       <c r="F65">
-        <v>0.001222947353674907</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04365351892827126</v>
+      </c>
+      <c r="G65">
+        <v>0.0002006246498282121</v>
+      </c>
+      <c r="H65">
+        <v>-0.0700052883217436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03417037528729738</v>
+        <v>0.01732896002845943</v>
       </c>
       <c r="C66">
-        <v>-0.02904946861613012</v>
+        <v>0.01403991765825384</v>
       </c>
       <c r="D66">
-        <v>0.06873073999011833</v>
+        <v>0.1115600244462439</v>
       </c>
       <c r="E66">
-        <v>0.03194561000147741</v>
+        <v>0.007017798720157419</v>
       </c>
       <c r="F66">
-        <v>0.02700938221503693</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03788094171382266</v>
+      </c>
+      <c r="G66">
+        <v>-0.02886141569164659</v>
+      </c>
+      <c r="H66">
+        <v>-0.08453305164979054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02003268904040424</v>
+        <v>0.04661393846982728</v>
       </c>
       <c r="C67">
-        <v>-0.01407929326358491</v>
+        <v>0.01636201872823319</v>
       </c>
       <c r="D67">
-        <v>-0.00907598438720867</v>
+        <v>0.02094758007651848</v>
       </c>
       <c r="E67">
-        <v>-0.008982928230843923</v>
+        <v>0.0007074676475178296</v>
       </c>
       <c r="F67">
-        <v>0.02337017967602974</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01866055981775913</v>
+      </c>
+      <c r="G67">
+        <v>-0.01363062554447704</v>
+      </c>
+      <c r="H67">
+        <v>-0.0334203607192662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07017513941867105</v>
+        <v>0.1977704158666715</v>
       </c>
       <c r="C68">
-        <v>-0.0194337849487029</v>
+        <v>-0.02366867698581546</v>
       </c>
       <c r="D68">
-        <v>-0.2137168014586459</v>
+        <v>-0.2127033920798654</v>
       </c>
       <c r="E68">
-        <v>-0.02822102401930297</v>
+        <v>0.01053638917504269</v>
       </c>
       <c r="F68">
-        <v>0.07970711104514529</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04651548109156722</v>
+      </c>
+      <c r="G68">
+        <v>-0.02783934562396018</v>
+      </c>
+      <c r="H68">
+        <v>0.04369462347682809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0620615613652121</v>
+        <v>0.05939496728184551</v>
       </c>
       <c r="C69">
-        <v>-0.03408683938419527</v>
+        <v>0.02595285012098706</v>
       </c>
       <c r="D69">
-        <v>0.02015395573233497</v>
+        <v>0.05253833768915706</v>
       </c>
       <c r="E69">
-        <v>0.0336892040168114</v>
+        <v>-0.005379944400316441</v>
       </c>
       <c r="F69">
-        <v>0.00752647743578272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02870811570304991</v>
+      </c>
+      <c r="G69">
+        <v>0.008157858639718246</v>
+      </c>
+      <c r="H69">
+        <v>-0.007897468886757115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07814227125980784</v>
+        <v>0.1763715265467679</v>
       </c>
       <c r="C71">
-        <v>-0.02745626570986747</v>
+        <v>-0.01127830336312509</v>
       </c>
       <c r="D71">
-        <v>-0.2153836294865351</v>
+        <v>-0.1691739213544922</v>
       </c>
       <c r="E71">
-        <v>-0.0611591400416238</v>
+        <v>0.0142418687656986</v>
       </c>
       <c r="F71">
-        <v>0.0894430070982241</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.0568008206564217</v>
+      </c>
+      <c r="G71">
+        <v>-0.03358424688297183</v>
+      </c>
+      <c r="H71">
+        <v>0.02368621020846089</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1009818786344343</v>
+        <v>0.06246657974676172</v>
       </c>
       <c r="C72">
-        <v>-0.06913665249867705</v>
+        <v>0.03467843890679673</v>
       </c>
       <c r="D72">
-        <v>0.07725228376121489</v>
+        <v>0.09490986020224539</v>
       </c>
       <c r="E72">
-        <v>0.07609893390511602</v>
+        <v>0.01383083697279518</v>
       </c>
       <c r="F72">
-        <v>0.06815641244530599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06986640677769117</v>
+      </c>
+      <c r="G72">
+        <v>-0.02682948823813035</v>
+      </c>
+      <c r="H72">
+        <v>-0.1045579616907682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1881327899850924</v>
+        <v>0.2747504304354392</v>
       </c>
       <c r="C73">
-        <v>-0.1713408829692649</v>
+        <v>0.03366387223259879</v>
       </c>
       <c r="D73">
-        <v>-0.02420169156269807</v>
+        <v>0.1115529199813069</v>
       </c>
       <c r="E73">
-        <v>-0.04477577114422143</v>
+        <v>0.09219687633288236</v>
       </c>
       <c r="F73">
-        <v>0.2039766184072773</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.08952636054705457</v>
+      </c>
+      <c r="G73">
+        <v>-0.02978169334226654</v>
+      </c>
+      <c r="H73">
+        <v>-0.4840530227080891</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1253074261581669</v>
+        <v>0.1047893488951485</v>
       </c>
       <c r="C74">
-        <v>-0.06616683689858856</v>
+        <v>0.04618284750608814</v>
       </c>
       <c r="D74">
-        <v>0.03010802655007848</v>
+        <v>0.1261782673301785</v>
       </c>
       <c r="E74">
-        <v>0.04684969436284401</v>
+        <v>-0.01270021838158998</v>
       </c>
       <c r="F74">
-        <v>-0.07604016330092608</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0429755051969553</v>
+      </c>
+      <c r="G74">
+        <v>0.03678045325760543</v>
+      </c>
+      <c r="H74">
+        <v>0.035350797928238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2140474121794869</v>
+        <v>0.205014337532367</v>
       </c>
       <c r="C75">
-        <v>-0.1270735736439076</v>
+        <v>0.08451726125192072</v>
       </c>
       <c r="D75">
-        <v>0.03673505983972027</v>
+        <v>0.1957546985489184</v>
       </c>
       <c r="E75">
-        <v>0.1487210090352812</v>
+        <v>-0.009547140328849577</v>
       </c>
       <c r="F75">
-        <v>-0.1163024585042409</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09976837586802455</v>
+      </c>
+      <c r="G75">
+        <v>0.09435255373855973</v>
+      </c>
+      <c r="H75">
+        <v>0.1480630258089793</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2601567776962511</v>
+        <v>0.1653116563424767</v>
       </c>
       <c r="C76">
-        <v>-0.1104551729506308</v>
+        <v>0.07742720709531312</v>
       </c>
       <c r="D76">
-        <v>0.0438949055939368</v>
+        <v>0.1880595743554158</v>
       </c>
       <c r="E76">
-        <v>0.1703143499211198</v>
+        <v>-0.0469383691200197</v>
       </c>
       <c r="F76">
-        <v>-0.2058071570662095</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08974194800172779</v>
+      </c>
+      <c r="G76">
+        <v>0.085727847341535</v>
+      </c>
+      <c r="H76">
+        <v>0.1257919650276283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1005560988571619</v>
+        <v>0.05566495097273805</v>
       </c>
       <c r="C77">
-        <v>-0.06597628439116943</v>
+        <v>0.008486498268120144</v>
       </c>
       <c r="D77">
-        <v>0.1145320704324328</v>
+        <v>0.08968615665706156</v>
       </c>
       <c r="E77">
-        <v>-0.04591919476498051</v>
+        <v>0.01775357924962719</v>
       </c>
       <c r="F77">
-        <v>0.130198857245741</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.02973648260072325</v>
+      </c>
+      <c r="G77">
+        <v>-0.06914042503078829</v>
+      </c>
+      <c r="H77">
+        <v>-0.02639623347349535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0622065955344171</v>
+        <v>0.03089504266558455</v>
       </c>
       <c r="C78">
-        <v>-0.02611004085825468</v>
+        <v>0.01147937873271826</v>
       </c>
       <c r="D78">
-        <v>0.1222262377716651</v>
+        <v>0.07333919602485932</v>
       </c>
       <c r="E78">
-        <v>0.01627566310599349</v>
+        <v>-0.00544707974550031</v>
       </c>
       <c r="F78">
-        <v>0.07525498145105752</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01301420405807571</v>
+      </c>
+      <c r="G78">
+        <v>-0.05601640834729343</v>
+      </c>
+      <c r="H78">
+        <v>-0.09342424396295045</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5165681166897658</v>
+        <v>0.1109692908052583</v>
       </c>
       <c r="C80">
-        <v>0.8378044364876286</v>
+        <v>0.02324198691921653</v>
       </c>
       <c r="D80">
-        <v>0.06903848067407076</v>
+        <v>0.09836470201175646</v>
       </c>
       <c r="E80">
-        <v>-0.04591720733287176</v>
+        <v>-0.9138593181127772</v>
       </c>
       <c r="F80">
-        <v>0.04273121072603801</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2777236916213737</v>
+      </c>
+      <c r="G80">
+        <v>-0.1779423703329313</v>
+      </c>
+      <c r="H80">
+        <v>-0.0197417794231703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1685372659081735</v>
+        <v>0.1362737525139961</v>
       </c>
       <c r="C81">
-        <v>-0.08632894630589841</v>
+        <v>0.05404489330103888</v>
       </c>
       <c r="D81">
-        <v>0.02136160823807821</v>
+        <v>0.1256771900589163</v>
       </c>
       <c r="E81">
-        <v>0.1190738922819425</v>
+        <v>-0.01630119294873301</v>
       </c>
       <c r="F81">
-        <v>-0.11461010124437</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06180227460541343</v>
+      </c>
+      <c r="G81">
+        <v>0.05651763814094645</v>
+      </c>
+      <c r="H81">
+        <v>0.07985888286511134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03169597315296845</v>
+        <v>0.02903857773436779</v>
       </c>
       <c r="C83">
-        <v>-0.02348622936062528</v>
+        <v>0.003814212910958064</v>
       </c>
       <c r="D83">
-        <v>0.03010960521920023</v>
+        <v>0.02825611229791745</v>
       </c>
       <c r="E83">
-        <v>-0.01316262545790277</v>
+        <v>0.006657361303769445</v>
       </c>
       <c r="F83">
-        <v>0.0583564676050645</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.0001662153456498136</v>
+      </c>
+      <c r="G83">
+        <v>-0.03859388739317589</v>
+      </c>
+      <c r="H83">
+        <v>-0.04345216398891808</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2360709549097305</v>
+        <v>0.1952347399094419</v>
       </c>
       <c r="C85">
-        <v>-0.1245186550266052</v>
+        <v>0.07067801272083411</v>
       </c>
       <c r="D85">
-        <v>0.03791701079978552</v>
+        <v>0.2001198649016573</v>
       </c>
       <c r="E85">
-        <v>0.1287630382332086</v>
+        <v>-0.008994702616358792</v>
       </c>
       <c r="F85">
-        <v>-0.1525700735098033</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.09211971734538188</v>
+      </c>
+      <c r="G85">
+        <v>0.1237179395173434</v>
+      </c>
+      <c r="H85">
+        <v>0.07360681484692924</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006774736192540776</v>
+        <v>0.01449980375435439</v>
       </c>
       <c r="C86">
-        <v>0.002972115575071199</v>
+        <v>0.001519147709852928</v>
       </c>
       <c r="D86">
-        <v>0.08028934710877728</v>
+        <v>0.04130003691377689</v>
       </c>
       <c r="E86">
-        <v>-0.006523762134395128</v>
+        <v>-0.007378712493013939</v>
       </c>
       <c r="F86">
-        <v>0.04922744677678961</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01132786300785406</v>
+      </c>
+      <c r="G86">
+        <v>-0.03750458295689343</v>
+      </c>
+      <c r="H86">
+        <v>-0.07961187038226118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03654208402842912</v>
+        <v>0.01759874950012498</v>
       </c>
       <c r="C87">
-        <v>-0.01796852035364013</v>
+        <v>0.0022762974622696</v>
       </c>
       <c r="D87">
-        <v>0.04107749512583284</v>
+        <v>0.04849609290285101</v>
       </c>
       <c r="E87">
-        <v>-0.000594313226131084</v>
+        <v>0.003027398111209461</v>
       </c>
       <c r="F87">
-        <v>0.1057537756669975</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>3.441449164235394e-05</v>
+      </c>
+      <c r="G87">
+        <v>-0.07178157445212063</v>
+      </c>
+      <c r="H87">
+        <v>-0.08551774778865745</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0197209087518061</v>
+        <v>0.03781957767409755</v>
       </c>
       <c r="C88">
-        <v>0.005539559777700888</v>
+        <v>-0.01254296064177232</v>
       </c>
       <c r="D88">
-        <v>-0.006121048929217105</v>
+        <v>0.0242236763213786</v>
       </c>
       <c r="E88">
-        <v>0.01655084222937046</v>
+        <v>-0.01985743931423231</v>
       </c>
       <c r="F88">
-        <v>-0.01609267219421225</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01523997584480496</v>
+      </c>
+      <c r="G88">
+        <v>0.0008018387923056121</v>
+      </c>
+      <c r="H88">
+        <v>-0.006708284656002293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1066436418307161</v>
+        <v>0.3022548758201455</v>
       </c>
       <c r="C89">
-        <v>-0.0422739405704114</v>
+        <v>-0.02261028656165387</v>
       </c>
       <c r="D89">
-        <v>-0.3336842624600886</v>
+        <v>-0.3044835445434642</v>
       </c>
       <c r="E89">
-        <v>-0.0311283820022061</v>
+        <v>0.01182390283754293</v>
       </c>
       <c r="F89">
-        <v>0.1114927247703371</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02173532837906098</v>
+      </c>
+      <c r="G89">
+        <v>0.01663757682255678</v>
+      </c>
+      <c r="H89">
+        <v>0.006088370507875238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09280976289095927</v>
+        <v>0.2522162468602768</v>
       </c>
       <c r="C90">
-        <v>-0.01433044784722658</v>
+        <v>-0.02059202548630086</v>
       </c>
       <c r="D90">
-        <v>-0.3620550436522661</v>
+        <v>-0.2792622616677576</v>
       </c>
       <c r="E90">
-        <v>-0.04807407704250478</v>
+        <v>0.004454091947190842</v>
       </c>
       <c r="F90">
-        <v>0.05925385851828889</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05989783915001785</v>
+      </c>
+      <c r="G90">
+        <v>0.002610482884862452</v>
+      </c>
+      <c r="H90">
+        <v>0.05409100770928658</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2690646478733153</v>
+        <v>0.204065275998819</v>
       </c>
       <c r="C91">
-        <v>-0.1635316900574671</v>
+        <v>0.0807622013353803</v>
       </c>
       <c r="D91">
-        <v>0.0311830609487399</v>
+        <v>0.1844182432764196</v>
       </c>
       <c r="E91">
-        <v>0.1215813241431283</v>
+        <v>0.002807885451344735</v>
       </c>
       <c r="F91">
-        <v>-0.2424206997257411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.083605002696856</v>
+      </c>
+      <c r="G91">
+        <v>0.1130029664556151</v>
+      </c>
+      <c r="H91">
+        <v>0.1689276248621143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1629462475781051</v>
+        <v>0.2760954806770576</v>
       </c>
       <c r="C92">
-        <v>-0.05968987902212729</v>
+        <v>0.04171524275689844</v>
       </c>
       <c r="D92">
-        <v>-0.417658242698585</v>
+        <v>-0.1960966676583216</v>
       </c>
       <c r="E92">
-        <v>0.1249006501465958</v>
+        <v>-0.007344196670940614</v>
       </c>
       <c r="F92">
-        <v>-0.02344669178530579</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.006875340215536824</v>
+      </c>
+      <c r="G92">
+        <v>-0.03457951490306031</v>
+      </c>
+      <c r="H92">
+        <v>0.1469350765369828</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09308569599562028</v>
+        <v>0.2827429174666721</v>
       </c>
       <c r="C93">
-        <v>-0.05180380405136004</v>
+        <v>-0.01106450379117887</v>
       </c>
       <c r="D93">
-        <v>-0.4347063067998115</v>
+        <v>-0.2853647717680118</v>
       </c>
       <c r="E93">
-        <v>-0.07496863283991857</v>
+        <v>0.032831427309771</v>
       </c>
       <c r="F93">
-        <v>0.07175745667087634</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05369212994271935</v>
+      </c>
+      <c r="G93">
+        <v>0.009244860309426846</v>
+      </c>
+      <c r="H93">
+        <v>0.001433206066976588</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.260757483637575</v>
+        <v>0.2506604251306047</v>
       </c>
       <c r="C94">
-        <v>-0.1669281950825448</v>
+        <v>0.07696959936331975</v>
       </c>
       <c r="D94">
-        <v>0.03234755769326959</v>
+        <v>0.2019433522384317</v>
       </c>
       <c r="E94">
-        <v>0.2259569867671088</v>
+        <v>0.005774802406066067</v>
       </c>
       <c r="F94">
-        <v>-0.1888113522289165</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2035074910975525</v>
+      </c>
+      <c r="G94">
+        <v>0.1939303563333721</v>
+      </c>
+      <c r="H94">
+        <v>0.3854677516763937</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.02539202206805425</v>
+        <v>0.03301133840276457</v>
       </c>
       <c r="C95">
-        <v>-0.08777989227855035</v>
+        <v>0.02904889894805621</v>
       </c>
       <c r="D95">
-        <v>0.06252368692126457</v>
+        <v>0.09872473220610992</v>
       </c>
       <c r="E95">
-        <v>-0.009926806905001303</v>
+        <v>0.08152217857359252</v>
       </c>
       <c r="F95">
-        <v>0.01581846885051204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01352342348157024</v>
+      </c>
+      <c r="G95">
+        <v>-0.0398548302697895</v>
+      </c>
+      <c r="H95">
+        <v>-0.03395299124321038</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1492313834636564</v>
+        <v>0.188725145513269</v>
       </c>
       <c r="C98">
-        <v>-0.1100791983538102</v>
+        <v>0.05011191838895343</v>
       </c>
       <c r="D98">
-        <v>-0.02325143771849079</v>
+        <v>0.06032406695933575</v>
       </c>
       <c r="E98">
-        <v>-0.04759230368256369</v>
+        <v>0.06341668307403511</v>
       </c>
       <c r="F98">
-        <v>0.1625467419047114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02443920660663267</v>
+      </c>
+      <c r="G98">
+        <v>-0.06144970634256216</v>
+      </c>
+      <c r="H98">
+        <v>-0.3336970507111658</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.008370618695025605</v>
+        <v>0.009843189761089974</v>
       </c>
       <c r="C101">
-        <v>0.00128189904392179</v>
+        <v>-0.001475922454517924</v>
       </c>
       <c r="D101">
-        <v>0.07226127080280842</v>
+        <v>0.02027547274826736</v>
       </c>
       <c r="E101">
-        <v>0.02480326354208433</v>
+        <v>0.001417791241460263</v>
       </c>
       <c r="F101">
-        <v>0.1708538519289693</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0004129170011308408</v>
+      </c>
+      <c r="G101">
+        <v>-0.09958783478840039</v>
+      </c>
+      <c r="H101">
+        <v>0.01131209213992121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1081318141638507</v>
+        <v>0.09584087890667621</v>
       </c>
       <c r="C102">
-        <v>-0.05454163273351098</v>
+        <v>0.0271002573442421</v>
       </c>
       <c r="D102">
-        <v>0.02082798742953655</v>
+        <v>0.09531116883390439</v>
       </c>
       <c r="E102">
-        <v>0.06968749797247417</v>
+        <v>-0.008055262131271309</v>
       </c>
       <c r="F102">
-        <v>-0.0966233421059884</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04891731764052163</v>
+      </c>
+      <c r="G102">
+        <v>0.0537851823029064</v>
+      </c>
+      <c r="H102">
+        <v>0.06438318965326678</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04221502061591854</v>
+        <v>0.01256545921418032</v>
       </c>
       <c r="C103">
-        <v>-0.008041947902063862</v>
+        <v>0.005071968817587349</v>
       </c>
       <c r="D103">
-        <v>0.02887273880800782</v>
+        <v>0.01814839071844727</v>
       </c>
       <c r="E103">
-        <v>0.0333453173862349</v>
+        <v>-0.01293913420435916</v>
       </c>
       <c r="F103">
-        <v>-0.007608499846278898</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.004355280182420634</v>
+      </c>
+      <c r="G103">
+        <v>-0.00557821267834352</v>
+      </c>
+      <c r="H103">
+        <v>0.01349928645349005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1265075805961531</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9678317700041671</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1364440806785882</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02924450234617506</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1259918466597933</v>
+      </c>
+      <c r="G104">
+        <v>-0.01272132380418387</v>
+      </c>
+      <c r="H104">
+        <v>0.05240722000749171</v>
       </c>
     </row>
   </sheetData>
